--- a/proyecto ciclo 3.xlsx
+++ b/proyecto ciclo 3.xlsx
@@ -22,10 +22,10 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filtro 3" guid="{3BE2982B-EA8C-4A09-9191-A5F263730BE6}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filtro 2" guid="{25222012-B530-495B-8EE4-DCA93C05C558}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filtro 1" guid="{B23FD070-CFC4-4C8D-9CBB-AF8A01830AB6}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filtro 4" guid="{4EC0CF3C-D99D-481A-BC49-B998A70858DB}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filtro 1" guid="{B23FD070-CFC4-4C8D-9CBB-AF8A01830AB6}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filtro 2" guid="{25222012-B530-495B-8EE4-DCA93C05C558}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filtro 3" guid="{3BE2982B-EA8C-4A09-9191-A5F263730BE6}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -62,12 +62,6 @@
     <t>IMPACTO ESPERADO</t>
   </si>
   <si>
-    <t>Gerencia y Empleados</t>
-  </si>
-  <si>
-    <t>Optimizacion en las respuesta y control de procesos e inventarios</t>
-  </si>
-  <si>
     <t>Logistica</t>
   </si>
   <si>
@@ -79,6 +73,12 @@
   </si>
   <si>
     <t>Sistema de Seguimiento DO (Control Interno de Pedidos)</t>
+  </si>
+  <si>
+    <t>Gerencia y Empleados de Comercio Exterior</t>
+  </si>
+  <si>
+    <t>Optimizacion en las importaciones y control de procesos e inventarios de los clientes</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -471,22 +471,22 @@
         <v>2208</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3156,16 +3156,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B23FD070-CFC4-4C8D-9CBB-AF8A01830AB6}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{25222012-B530-495B-8EE4-DCA93C05C558}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:G103">
-        <sortState ref="A3:G103">
-          <sortCondition ref="B3:B103"/>
-        </sortState>
-      </autoFilter>
+      <autoFilter ref="A3:G101"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1240036668"/>
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="985441496"/>
+        </ext>
+      </extLst>
+    </customSheetView>
+    <customSheetView guid="{4EC0CF3C-D99D-481A-BC49-B998A70858DB}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A3:G101"/>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="373758821"/>
         </ext>
       </extLst>
     </customSheetView>
@@ -3187,21 +3192,16 @@
         </ext>
       </extLst>
     </customSheetView>
-    <customSheetView guid="{4EC0CF3C-D99D-481A-BC49-B998A70858DB}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{B23FD070-CFC4-4C8D-9CBB-AF8A01830AB6}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:G101"/>
+      <autoFilter ref="A3:G103">
+        <sortState ref="A3:G103">
+          <sortCondition ref="B3:B103"/>
+        </sortState>
+      </autoFilter>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="373758821"/>
-        </ext>
-      </extLst>
-    </customSheetView>
-    <customSheetView guid="{25222012-B530-495B-8EE4-DCA93C05C558}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:G101"/>
-      <extLst>
-        <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="985441496"/>
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1240036668"/>
         </ext>
       </extLst>
     </customSheetView>
